--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.52339298607913</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N2">
-        <v>4.52339298607913</v>
+        <v>13.644797</v>
       </c>
       <c r="O2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q2">
-        <v>251.3156195951776</v>
+        <v>281.2858997781052</v>
       </c>
       <c r="R2">
-        <v>251.3156195951776</v>
+        <v>2531.573098002947</v>
       </c>
       <c r="S2">
-        <v>0.02471872500650046</v>
+        <v>0.02527628002939346</v>
       </c>
       <c r="T2">
-        <v>0.02471872500650046</v>
+        <v>0.02527628002939346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.828098121734167</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N3">
-        <v>0.828098121734167</v>
+        <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q3">
-        <v>46.00838202422423</v>
+        <v>52.82638096219288</v>
       </c>
       <c r="R3">
-        <v>46.00838202422423</v>
+        <v>475.4374286597359</v>
       </c>
       <c r="S3">
-        <v>0.004525260089614583</v>
+        <v>0.004746965273386024</v>
       </c>
       <c r="T3">
-        <v>0.004525260089614583</v>
+        <v>0.004746965273386024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.245779115138495</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N4">
-        <v>0.245779115138495</v>
+        <v>0.055439</v>
       </c>
       <c r="O4">
-        <v>0.04391053233961612</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P4">
-        <v>0.04391053233961612</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q4">
-        <v>13.65526515044758</v>
+        <v>1.142868523276556</v>
       </c>
       <c r="R4">
-        <v>13.65526515044758</v>
+        <v>10.285816709489</v>
       </c>
       <c r="S4">
-        <v>0.001343094968344896</v>
+        <v>0.0001026978773337225</v>
       </c>
       <c r="T4">
-        <v>0.001343094968344896</v>
+        <v>0.0001026978773337224</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1361.3754564882</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>1361.3754564882</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.52339298607913</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N5">
-        <v>4.52339298607913</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O5">
-        <v>0.8081426848985791</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P5">
-        <v>0.8081426848985791</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q5">
-        <v>6158.036191298997</v>
+        <v>15.64548025621011</v>
       </c>
       <c r="R5">
-        <v>6158.036191298997</v>
+        <v>140.809322305891</v>
       </c>
       <c r="S5">
-        <v>0.6056877938505906</v>
+        <v>0.001405898910902662</v>
       </c>
       <c r="T5">
-        <v>0.6056877938505906</v>
+        <v>0.001405898910902662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H6">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I6">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J6">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.828098121734167</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N6">
-        <v>0.828098121734167</v>
+        <v>13.644797</v>
       </c>
       <c r="O6">
-        <v>0.1479467827618047</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P6">
-        <v>0.1479467827618047</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q6">
-        <v>1127.352458492873</v>
+        <v>6191.91367885133</v>
       </c>
       <c r="R6">
-        <v>1127.352458492873</v>
+        <v>55727.22310966198</v>
       </c>
       <c r="S6">
-        <v>0.1108833404456739</v>
+        <v>0.5564038019251628</v>
       </c>
       <c r="T6">
-        <v>0.1108833404456739</v>
+        <v>0.556403801925163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.245779115138495</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N7">
-        <v>0.245779115138495</v>
+        <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.04391053233961612</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P7">
-        <v>0.04391053233961612</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q7">
-        <v>334.5976550669345</v>
+        <v>1162.860957986328</v>
       </c>
       <c r="R7">
-        <v>334.5976550669345</v>
+        <v>10465.74862187695</v>
       </c>
       <c r="S7">
-        <v>0.03291012089396674</v>
+        <v>0.1044943924757619</v>
       </c>
       <c r="T7">
-        <v>0.03291012089396674</v>
+        <v>0.1044943924757619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.52339298607913</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N8">
-        <v>4.52339298607913</v>
+        <v>0.055439</v>
       </c>
       <c r="O8">
-        <v>0.8081426848985791</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P8">
-        <v>0.8081426848985791</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q8">
-        <v>1090.711181458453</v>
+        <v>25.157831402097</v>
       </c>
       <c r="R8">
-        <v>1090.711181458453</v>
+        <v>226.420482618873</v>
       </c>
       <c r="S8">
-        <v>0.1072794034824251</v>
+        <v>0.002260676386385895</v>
       </c>
       <c r="T8">
-        <v>0.1072794034824251</v>
+        <v>0.002260676386385896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.828098121734167</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N9">
-        <v>0.828098121734167</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O9">
-        <v>0.1479467827618047</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P9">
-        <v>0.1479467827618047</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q9">
-        <v>199.6766328947919</v>
+        <v>344.402130668643</v>
       </c>
       <c r="R9">
-        <v>199.6766328947919</v>
+        <v>3099.619176017787</v>
       </c>
       <c r="S9">
-        <v>0.01963965386115227</v>
+        <v>0.03094788862281242</v>
       </c>
       <c r="T9">
-        <v>0.01963965386115227</v>
+        <v>0.03094788862281243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H10">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I10">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J10">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245779115138495</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N10">
-        <v>0.245779115138495</v>
+        <v>13.644797</v>
       </c>
       <c r="O10">
-        <v>0.04391053233961612</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P10">
-        <v>0.04391053233961612</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q10">
-        <v>59.26392641000383</v>
+        <v>1141.646583868719</v>
       </c>
       <c r="R10">
-        <v>59.26392641000383</v>
+        <v>10274.81925481847</v>
       </c>
       <c r="S10">
-        <v>0.005829039604040889</v>
+        <v>0.1025880741666395</v>
       </c>
       <c r="T10">
-        <v>0.005829039604040889</v>
+        <v>0.1025880741666395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H11">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I11">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J11">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.52339298607913</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N11">
-        <v>4.52339298607913</v>
+        <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.8081426848985791</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P11">
-        <v>0.8081426848985791</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q11">
-        <v>603.8673615859019</v>
+        <v>214.4048365425013</v>
       </c>
       <c r="R11">
-        <v>603.8673615859019</v>
+        <v>1929.643528882512</v>
       </c>
       <c r="S11">
-        <v>0.05939476135819659</v>
+        <v>0.01926636455072828</v>
       </c>
       <c r="T11">
-        <v>0.05939476135819659</v>
+        <v>0.01926636455072828</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.828098121734167</v>
+        <v>0.01847966666666667</v>
       </c>
       <c r="N12">
-        <v>0.828098121734167</v>
+        <v>0.055439</v>
       </c>
       <c r="O12">
-        <v>0.1479467827618047</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="P12">
-        <v>0.1479467827618047</v>
+        <v>0.003256957745674598</v>
       </c>
       <c r="Q12">
-        <v>110.5500736824781</v>
+        <v>4.638525949715333</v>
       </c>
       <c r="R12">
-        <v>110.5500736824781</v>
+        <v>41.746733547438</v>
       </c>
       <c r="S12">
-        <v>0.01087340641702787</v>
+        <v>0.0004168167722630338</v>
       </c>
       <c r="T12">
-        <v>0.01087340641702787</v>
+        <v>0.0004168167722630338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.245779115138495</v>
+        <v>0.2529803333333334</v>
       </c>
       <c r="N13">
-        <v>0.245779115138495</v>
+        <v>0.7589410000000001</v>
       </c>
       <c r="O13">
-        <v>0.04391053233961612</v>
+        <v>0.04458664060426821</v>
       </c>
       <c r="P13">
-        <v>0.04391053233961612</v>
+        <v>0.04458664060426822</v>
       </c>
       <c r="Q13">
-        <v>32.81120748260457</v>
+        <v>63.49983807072467</v>
       </c>
       <c r="R13">
-        <v>32.81120748260457</v>
+        <v>571.4985426365221</v>
       </c>
       <c r="S13">
-        <v>0.003227221675279015</v>
+        <v>0.005706079437906152</v>
       </c>
       <c r="T13">
-        <v>0.003227221675279015</v>
+        <v>0.005706079437906151</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.8635304977225</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H14">
-        <v>24.8635304977225</v>
+        <v>780.094591</v>
       </c>
       <c r="I14">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J14">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.52339298607913</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N14">
-        <v>4.52339298607913</v>
+        <v>13.644797</v>
       </c>
       <c r="O14">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P14">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q14">
-        <v>112.4675194625625</v>
+        <v>1182.692481665892</v>
       </c>
       <c r="R14">
-        <v>112.4675194625625</v>
+        <v>10644.23233499303</v>
       </c>
       <c r="S14">
-        <v>0.01106200120086633</v>
+        <v>0.1062764481931998</v>
       </c>
       <c r="T14">
-        <v>0.01106200120086633</v>
+        <v>0.1062764481931998</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.8635304977225</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H15">
-        <v>24.8635304977225</v>
+        <v>780.094591</v>
       </c>
       <c r="I15">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J15">
-        <v>0.01368817834718704</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.828098121734167</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N15">
-        <v>0.828098121734167</v>
+        <v>2.562536</v>
       </c>
       <c r="O15">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P15">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q15">
-        <v>20.58944290484418</v>
+        <v>222.1133858714196</v>
       </c>
       <c r="R15">
-        <v>20.58944290484418</v>
+        <v>1999.020472842776</v>
       </c>
       <c r="S15">
-        <v>0.00202512194833612</v>
+        <v>0.01995905284975726</v>
       </c>
       <c r="T15">
-        <v>0.00202512194833612</v>
+        <v>0.01995905284975726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H16">
+        <v>780.094591</v>
+      </c>
+      <c r="I16">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J16">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.055439</v>
+      </c>
+      <c r="O16">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P16">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q16">
+        <v>4.805296003383224</v>
+      </c>
+      <c r="R16">
+        <v>43.247664030449</v>
+      </c>
+      <c r="S16">
+        <v>0.0004318026872354936</v>
+      </c>
+      <c r="T16">
+        <v>0.0004318026872354937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H17">
+        <v>780.094591</v>
+      </c>
+      <c r="I17">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J17">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P17">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q17">
+        <v>65.78286322090347</v>
+      </c>
+      <c r="R17">
+        <v>592.045768988131</v>
+      </c>
+      <c r="S17">
+        <v>0.005911231502249189</v>
+      </c>
+      <c r="T17">
+        <v>0.00591123150224919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>24.8635304977225</v>
-      </c>
-      <c r="H16">
-        <v>24.8635304977225</v>
-      </c>
-      <c r="I16">
-        <v>0.01368817834718704</v>
-      </c>
-      <c r="J16">
-        <v>0.01368817834718704</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="N16">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="O16">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="P16">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="Q16">
-        <v>6.110936524949221</v>
-      </c>
-      <c r="R16">
-        <v>6.110936524949221</v>
-      </c>
-      <c r="S16">
-        <v>0.0006010551979845897</v>
-      </c>
-      <c r="T16">
-        <v>0.0006010551979845897</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H18">
+        <v>81.231988</v>
+      </c>
+      <c r="I18">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J18">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N18">
+        <v>13.644797</v>
+      </c>
+      <c r="O18">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P18">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q18">
+        <v>123.1548873518262</v>
+      </c>
+      <c r="R18">
+        <v>1108.393986166436</v>
+      </c>
+      <c r="S18">
+        <v>0.01106666712461877</v>
+      </c>
+      <c r="T18">
+        <v>0.01106666712461877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H19">
+        <v>81.231988</v>
+      </c>
+      <c r="I19">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J19">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N19">
+        <v>2.562536</v>
+      </c>
+      <c r="O19">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P19">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q19">
+        <v>23.12887706684089</v>
+      </c>
+      <c r="R19">
+        <v>208.159893601568</v>
+      </c>
+      <c r="S19">
+        <v>0.002078355061409274</v>
+      </c>
+      <c r="T19">
+        <v>0.002078355061409274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H20">
+        <v>81.231988</v>
+      </c>
+      <c r="I20">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J20">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.055439</v>
+      </c>
+      <c r="O20">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P20">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q20">
+        <v>0.5003800203035557</v>
+      </c>
+      <c r="R20">
+        <v>4.503420182732</v>
+      </c>
+      <c r="S20">
+        <v>4.496402245645281E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.496402245645281E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H21">
+        <v>81.231988</v>
+      </c>
+      <c r="I21">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J21">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P21">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q21">
+        <v>6.850031800523112</v>
+      </c>
+      <c r="R21">
+        <v>61.65028620470801</v>
+      </c>
+      <c r="S21">
+        <v>0.0006155421303977841</v>
+      </c>
+      <c r="T21">
+        <v>0.0006155421303977841</v>
       </c>
     </row>
   </sheetData>
